--- a/data/processed/y_train.xlsx
+++ b/data/processed/y_train.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -492,12 +492,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -572,7 +572,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -582,7 +582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -597,7 +597,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -622,7 +622,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -632,7 +632,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -642,7 +642,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -677,7 +677,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -687,7 +687,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -702,7 +702,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -757,7 +757,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -767,7 +767,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -782,7 +782,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -812,7 +812,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -837,7 +837,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -852,7 +852,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -867,7 +867,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -882,7 +882,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -902,7 +902,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -982,7 +982,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -992,7 +992,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1002,7 +1002,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1012,7 +1012,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1022,7 +1022,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -1082,22 +1082,22 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1117,12 +1117,12 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1147,7 +1147,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -1222,7 +1222,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -1237,12 +1237,12 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -1272,12 +1272,12 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -1322,7 +1322,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -1352,7 +1352,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -1382,7 +1382,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -1397,7 +1397,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1407,7 +1407,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -1417,22 +1417,22 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -1452,22 +1452,22 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -1497,7 +1497,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -1522,12 +1522,12 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -1537,7 +1537,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -1557,7 +1557,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -1582,17 +1582,17 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -1607,12 +1607,12 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -1637,7 +1637,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -1647,7 +1647,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -1662,7 +1662,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -1727,7 +1727,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -1757,7 +1757,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -1767,12 +1767,12 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -1812,12 +1812,12 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -1852,7 +1852,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -1892,7 +1892,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -1902,17 +1902,17 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -1937,7 +1937,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -1967,7 +1967,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -1982,7 +1982,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -1997,7 +1997,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -2012,7 +2012,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2042,7 +2042,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -2062,17 +2062,17 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -2082,7 +2082,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -2102,7 +2102,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -2117,12 +2117,12 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -2162,12 +2162,12 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -2187,7 +2187,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -2207,12 +2207,12 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -2222,22 +2222,22 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -2282,7 +2282,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -2292,12 +2292,12 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -2307,17 +2307,17 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -2332,7 +2332,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -2342,7 +2342,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -2352,7 +2352,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -2397,7 +2397,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -2407,22 +2407,22 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -2437,7 +2437,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -2467,7 +2467,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -2497,7 +2497,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -2532,12 +2532,12 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -2547,7 +2547,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -2577,7 +2577,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -2597,7 +2597,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -2607,12 +2607,12 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -2622,7 +2622,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -2642,12 +2642,12 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -2697,7 +2697,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -2727,7 +2727,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -2747,12 +2747,12 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -2792,7 +2792,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -2837,12 +2837,12 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -2852,7 +2852,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -2867,7 +2867,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -2877,7 +2877,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -2892,7 +2892,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493">
@@ -2912,7 +2912,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -2937,7 +2937,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -2947,7 +2947,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -2967,7 +2967,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -2982,7 +2982,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -3002,7 +3002,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -3017,7 +3017,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -3032,7 +3032,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -3042,7 +3042,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -3067,12 +3067,12 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -3082,7 +3082,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -3112,12 +3112,12 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -3127,12 +3127,12 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -3167,7 +3167,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -3177,7 +3177,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -3212,7 +3212,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -3222,12 +3222,12 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -3252,12 +3252,12 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -3322,7 +3322,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -3332,7 +3332,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -3367,7 +3367,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -3377,12 +3377,12 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -3392,7 +3392,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -3402,7 +3402,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -3412,7 +3412,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -3432,7 +3432,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -3442,7 +3442,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -3482,7 +3482,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -3537,7 +3537,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -3552,7 +3552,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -3592,7 +3592,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -3612,7 +3612,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -3647,17 +3647,17 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -3672,7 +3672,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -3687,12 +3687,12 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -3717,7 +3717,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -3727,12 +3727,12 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -3782,7 +3782,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -3797,17 +3797,17 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -3827,7 +3827,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680">
@@ -3852,7 +3852,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -3867,7 +3867,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -3882,7 +3882,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -3927,7 +3927,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -3942,12 +3942,12 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -3967,7 +3967,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -3977,7 +3977,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -4002,12 +4002,12 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -4022,12 +4022,12 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -4067,12 +4067,12 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -4082,7 +4082,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -4092,7 +4092,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -4132,7 +4132,7 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -4142,7 +4142,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -4167,7 +4167,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -4187,7 +4187,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752">
@@ -4212,12 +4212,12 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -4242,7 +4242,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763">
@@ -4257,7 +4257,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766">
@@ -4272,7 +4272,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -4307,7 +4307,7 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -4347,7 +4347,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -4372,17 +4372,17 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791">
@@ -4407,7 +4407,7 @@
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -4417,12 +4417,12 @@
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799">
@@ -4437,12 +4437,12 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -4452,7 +4452,7 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -4462,12 +4462,12 @@
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -4487,17 +4487,17 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -4532,7 +4532,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -4592,7 +4592,7 @@
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -4602,12 +4602,12 @@
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -4617,7 +4617,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -4627,7 +4627,7 @@
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -4647,22 +4647,22 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -4692,7 +4692,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -4702,7 +4702,7 @@
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -4712,12 +4712,12 @@
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -4737,17 +4737,17 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -4812,17 +4812,17 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -4832,7 +4832,7 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -4857,12 +4857,12 @@
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -4902,7 +4902,7 @@
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -4932,7 +4932,7 @@
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -4947,7 +4947,7 @@
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -4957,7 +4957,7 @@
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906">
@@ -4967,12 +4967,12 @@
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909">
@@ -4992,7 +4992,7 @@
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -5007,7 +5007,7 @@
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
@@ -5052,7 +5052,7 @@
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -5067,7 +5067,7 @@
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -5107,12 +5107,12 @@
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937">
@@ -5132,7 +5132,7 @@
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -5147,7 +5147,7 @@
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -5172,17 +5172,17 @@
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951">
@@ -5212,12 +5212,12 @@
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958">
@@ -5227,12 +5227,12 @@
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -5262,12 +5262,12 @@
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -5277,12 +5277,12 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -5297,7 +5297,7 @@
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -5332,12 +5332,12 @@
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -5347,7 +5347,7 @@
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -5392,7 +5392,7 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -5407,7 +5407,7 @@
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996">
@@ -5417,12 +5417,12 @@
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999">
@@ -5447,7 +5447,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -5467,7 +5467,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -5502,7 +5502,7 @@
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015">
@@ -5512,12 +5512,12 @@
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -5537,12 +5537,12 @@
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -5557,7 +5557,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -5592,7 +5592,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -5617,7 +5617,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -5632,7 +5632,7 @@
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -5647,12 +5647,12 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -5672,7 +5672,7 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -5682,12 +5682,12 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -5712,7 +5712,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -5742,7 +5742,7 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063">
@@ -5807,17 +5807,17 @@
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -5837,7 +5837,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -5877,12 +5877,12 @@
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -5902,12 +5902,12 @@
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
@@ -5917,7 +5917,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -5927,7 +5927,7 @@
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -5942,7 +5942,7 @@
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -5957,7 +5957,7 @@
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106">
@@ -5972,7 +5972,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -5992,7 +5992,7 @@
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113">
@@ -6007,17 +6007,17 @@
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -6037,7 +6037,7 @@
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122">
@@ -6052,7 +6052,7 @@
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -6067,7 +6067,7 @@
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -6077,7 +6077,7 @@
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -6087,7 +6087,7 @@
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -6122,12 +6122,12 @@
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
@@ -6167,7 +6167,7 @@
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148">
@@ -6177,7 +6177,7 @@
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -6187,12 +6187,12 @@
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153">
@@ -6202,7 +6202,7 @@
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -6212,7 +6212,7 @@
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157">
@@ -6227,7 +6227,7 @@
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -6237,12 +6237,12 @@
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163">
@@ -6257,17 +6257,17 @@
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -6277,7 +6277,7 @@
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170">
@@ -6292,12 +6292,12 @@
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -6307,12 +6307,12 @@
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177">
@@ -6327,12 +6327,12 @@
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181">
@@ -6347,7 +6347,7 @@
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184">
@@ -6357,12 +6357,12 @@
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187">
@@ -6377,7 +6377,7 @@
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190">
@@ -6407,17 +6407,17 @@
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198">
@@ -6437,7 +6437,7 @@
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202">
@@ -6467,7 +6467,7 @@
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208">
@@ -6482,17 +6482,17 @@
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213">
@@ -6512,7 +6512,7 @@
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
@@ -6522,12 +6522,12 @@
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220">
@@ -6542,7 +6542,7 @@
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223">
@@ -6552,7 +6552,7 @@
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225">
@@ -6572,7 +6572,7 @@
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229">
@@ -6627,7 +6627,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240">
@@ -6662,7 +6662,7 @@
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247">
@@ -6677,7 +6677,7 @@
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250">
@@ -6692,7 +6692,7 @@
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253">
@@ -6707,7 +6707,7 @@
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -6717,12 +6717,12 @@
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259">
@@ -6777,7 +6777,7 @@
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270">
@@ -6787,7 +6787,7 @@
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272">
@@ -6827,7 +6827,7 @@
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280">
